--- a/CashFlow/SJM_cashflow.xlsx
+++ b/CashFlow/SJM_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3782000000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3843000000.0</v>
+        <v>17100000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2849100000.0</v>
+        <v>16200000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1752000000.0</v>
+        <v>12600000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>870500000.0</v>
+        <v>-34500000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-46900000.0</v>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>312000000.0</v>
+        <v>3317000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>330400000.0</v>
+        <v>2995000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>226100000.0</v>
+        <v>2100100000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>248600000.0</v>
+        <v>1382700000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>72900000.0</v>
+        <v>594300000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>32000000.0</v>
